--- a/data/trans_orig/DUR_SUEÑO_TOTAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_TOTAL-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Promedio de horas de sueño/día</t>
+          <t>Promedio de horas de sueño/día (tasa de respuesta: 99,04%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DUR_SUEÑO_TOTAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_TOTAL-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,51</t>
+          <t>7,07; 7,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 7,94</t>
+          <t>7,59; 7,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,74</t>
+          <t>7,12; 7,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,33</t>
+          <t>6,94; 7,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 7,68</t>
+          <t>7,44; 7,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 7,05</t>
+          <t>6,52; 7,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,36</t>
+          <t>7,04; 7,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,3</t>
+          <t>6,88; 7,3</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,34</t>
+          <t>7,19; 7,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 8,41</t>
+          <t>7,56; 8,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,18</t>
+          <t>7,12; 7,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,39</t>
+          <t>7,15; 7,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 6,98</t>
+          <t>6,79; 6,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,24</t>
+          <t>7,18; 7,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 7,99</t>
+          <t>7,39; 8,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,46</t>
+          <t>7,22; 7,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,15</t>
+          <t>6,99; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,32</t>
+          <t>7,18; 7,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,51</t>
+          <t>7,28; 7,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,11</t>
+          <t>6,94; 7,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,36</t>
+          <t>7,24; 7,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,49</t>
+          <t>7,34; 7,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,11</t>
+          <t>6,98; 7,11</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,34</t>
+          <t>7,24; 7,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 8,23</t>
+          <t>7,55; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,15</t>
+          <t>7,0; 7,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,22</t>
+          <t>7,16; 7,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,43</t>
+          <t>7,24; 7,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 6,99</t>
+          <t>6,85; 6,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,25</t>
+          <t>7,22; 7,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,05</t>
+          <t>6,94; 7,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DUR_SUEÑO_TOTAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_TOTAL-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,76</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,27</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,44</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,77</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>7,15</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,55</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>7,61</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>7,2</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,6; 7,91</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 7,78</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 7,56</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,07; 7,46</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 7,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 7,56</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 7,78</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>7,41; 7,64</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 7,07</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 7,43</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>6,94; 7,36</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,44; 7,69</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 7,43</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>6,52; 7,07</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>7,52; 7,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 7,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 7,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>7,04; 7,35</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 7,72</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>7,27; 7,45</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>6,88; 7,3</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7,23</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>7,2</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>7,24</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,57</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,52; 7,68</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 7,07</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 7,28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,19; 7,36</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 8,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 7,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,88; 7,07</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,33; 7,47</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 6,98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 7,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>7,12; 7,28</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 7,4</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 7,24</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 6,98</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>7,45; 7,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 7,0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 7,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>7,18; 7,3</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 8,01</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 7,24</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 7,0</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,17</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,33</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>7,29</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,03</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>7,31</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,33; 7,53</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 7,16</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 7,24</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,22; 7,43</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,33; 7,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 7,24</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,99; 7,16</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,28; 7,49</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 7,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 7,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>7,18; 7,37</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 7,5</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 7,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 7,12</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>7,34; 7,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 7,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 7,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>7,24; 7,37</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,34; 7,49</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>7,14; 7,25</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 7,11</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,75</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>7,22</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,99</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>7,26</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,55</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,51; 7,63</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 7,15</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 7,29</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,24; 7,36</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 8,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 7,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 7,15</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,37; 7,48</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 6,99</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 7,25</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>7,16; 7,28</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,24; 7,43</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>7,16; 7,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 6,99</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,45; 7,53</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 7,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 7,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>7,22; 7,3</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 7,85</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 7,26</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 7,04</t>
         </is>
       </c>
     </row>
